--- a/medicine/Psychotrope/Soproni/Soproni.xlsx
+++ b/medicine/Psychotrope/Soproni/Soproni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Soproni ([ˈʃopɾoni]) est une marque de bière hongroise de type Helles produite par la société Heineken. Son nom renvoie à la ville de Sopron dans l'ouest du pays.
@@ -518,9 +530,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les produits de la marque ont participé à de nombreuses compétitions internationales de boissons, et à chaque fois ils ont été récompensés par une distinction. Depuis 1998, la bière Soproni est évaluée par des brasseurs belges aux Sélections Mondiales de la Qualité, organisées par l’Institut International de la Qualité Monde Selection. En 2012, Soproni a été récompensée pour la 14e fois d’un label de qualité Or.  En 2010, la marque a reçu un International High Quality Trophy, décerné aux produits qui ont reçu un label de qualité Or durant 3 années consécutives[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits de la marque ont participé à de nombreuses compétitions internationales de boissons, et à chaque fois ils ont été récompensés par une distinction. Depuis 1998, la bière Soproni est évaluée par des brasseurs belges aux Sélections Mondiales de la Qualité, organisées par l’Institut International de la Qualité Monde Selection. En 2012, Soproni a été récompensée pour la 14e fois d’un label de qualité Or.  En 2010, la marque a reçu un International High Quality Trophy, décerné aux produits qui ont reçu un label de qualité Or durant 3 années consécutives.
 </t>
         </is>
       </c>
